--- a/xworkz.xlsx
+++ b/xworkz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vinay-git-clone\Thor-xlxs\thor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\X-workz Git clone\X-workz-newsfeed\newsfeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCBC0F-22B5-40F4-B004-05D9D6F8DEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA7016-3BCD-4F35-97B0-9216876F3F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20400" windowHeight="8964" xr2:uid="{17FE3567-98CC-4C0A-87CD-AF6DCADBD2FE}"/>
+    <workbookView xWindow="1308" yWindow="1404" windowWidth="20400" windowHeight="8964" xr2:uid="{17FE3567-98CC-4C0A-87CD-AF6DCADBD2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>44060</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>44060</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -458,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>44060</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>44061</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>44061</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>44061</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>44062</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>44062</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <v>44061</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="5">
-        <v>44062</v>
+        <v>44073</v>
       </c>
     </row>
   </sheetData>
